--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220512_173150.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220512_173150.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="273">
   <si>
     <t>사이트</t>
   </si>
@@ -806,6 +806,9 @@
   </si>
   <si>
     <t>SONY MUSIC</t>
+  </si>
+  <si>
+    <t>마크툽컴퍼니</t>
   </si>
   <si>
     <t>NEXTAR</t>
@@ -1242,7 +1245,7 @@
         <v>231</v>
       </c>
       <c r="H2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1268,7 +1271,7 @@
         <v>232</v>
       </c>
       <c r="H3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1294,7 +1297,7 @@
         <v>233</v>
       </c>
       <c r="H4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1346,7 +1349,7 @@
         <v>235</v>
       </c>
       <c r="H6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1398,7 +1401,7 @@
         <v>237</v>
       </c>
       <c r="H8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1424,7 +1427,7 @@
         <v>238</v>
       </c>
       <c r="H9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1450,7 +1453,7 @@
         <v>239</v>
       </c>
       <c r="H10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1476,7 +1479,7 @@
         <v>240</v>
       </c>
       <c r="H11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1502,7 +1505,7 @@
         <v>231</v>
       </c>
       <c r="H12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1528,7 +1531,7 @@
         <v>241</v>
       </c>
       <c r="H13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1606,7 +1609,7 @@
         <v>231</v>
       </c>
       <c r="H16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1632,7 +1635,7 @@
         <v>233</v>
       </c>
       <c r="H17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1658,7 +1661,7 @@
         <v>231</v>
       </c>
       <c r="H18" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1684,7 +1687,7 @@
         <v>244</v>
       </c>
       <c r="H19" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1710,7 +1713,7 @@
         <v>231</v>
       </c>
       <c r="H20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1736,7 +1739,7 @@
         <v>245</v>
       </c>
       <c r="H21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1762,7 +1765,7 @@
         <v>235</v>
       </c>
       <c r="H22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1788,7 +1791,7 @@
         <v>246</v>
       </c>
       <c r="H23" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1814,7 +1817,7 @@
         <v>238</v>
       </c>
       <c r="H24" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1840,7 +1843,7 @@
         <v>247</v>
       </c>
       <c r="H25" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1918,7 +1921,7 @@
         <v>244</v>
       </c>
       <c r="H28" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1944,7 +1947,7 @@
         <v>248</v>
       </c>
       <c r="H29" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1970,7 +1973,7 @@
         <v>238</v>
       </c>
       <c r="H30" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2022,7 +2025,7 @@
         <v>232</v>
       </c>
       <c r="H32" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2100,7 +2103,7 @@
         <v>250</v>
       </c>
       <c r="H35" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2126,7 +2129,7 @@
         <v>233</v>
       </c>
       <c r="H36" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2152,7 +2155,7 @@
         <v>251</v>
       </c>
       <c r="H37" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2178,7 +2181,7 @@
         <v>252</v>
       </c>
       <c r="H38" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2204,7 +2207,7 @@
         <v>253</v>
       </c>
       <c r="H39" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2230,7 +2233,7 @@
         <v>254</v>
       </c>
       <c r="H40" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2256,7 +2259,7 @@
         <v>239</v>
       </c>
       <c r="H41" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2282,7 +2285,7 @@
         <v>255</v>
       </c>
       <c r="H42" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2308,7 +2311,7 @@
         <v>231</v>
       </c>
       <c r="H43" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2334,7 +2337,7 @@
         <v>256</v>
       </c>
       <c r="H44" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2360,7 +2363,7 @@
         <v>257</v>
       </c>
       <c r="H45" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2386,7 +2389,7 @@
         <v>248</v>
       </c>
       <c r="H46" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2412,7 +2415,7 @@
         <v>258</v>
       </c>
       <c r="H47" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2438,7 +2441,7 @@
         <v>259</v>
       </c>
       <c r="H48" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2464,7 +2467,7 @@
         <v>232</v>
       </c>
       <c r="H49" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2490,7 +2493,7 @@
         <v>231</v>
       </c>
       <c r="H50" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2516,7 +2519,7 @@
         <v>255</v>
       </c>
       <c r="H51" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2542,7 +2545,7 @@
         <v>248</v>
       </c>
       <c r="H52" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2568,7 +2571,7 @@
         <v>239</v>
       </c>
       <c r="H53" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2620,7 +2623,7 @@
         <v>239</v>
       </c>
       <c r="H55" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2750,7 +2753,7 @@
         <v>239</v>
       </c>
       <c r="H60" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2776,7 +2779,7 @@
         <v>239</v>
       </c>
       <c r="H61" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2802,7 +2805,7 @@
         <v>241</v>
       </c>
       <c r="H62" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2854,7 +2857,7 @@
         <v>239</v>
       </c>
       <c r="H64" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2906,7 +2909,7 @@
         <v>261</v>
       </c>
       <c r="H66" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2958,7 +2961,7 @@
         <v>241</v>
       </c>
       <c r="H68" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2984,7 +2987,7 @@
         <v>231</v>
       </c>
       <c r="H69" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3010,7 +3013,7 @@
         <v>262</v>
       </c>
       <c r="H70" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3062,7 +3065,7 @@
         <v>239</v>
       </c>
       <c r="H72" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3088,7 +3091,7 @@
         <v>263</v>
       </c>
       <c r="H73" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3110,6 +3113,12 @@
       <c r="F74" t="s">
         <v>210</v>
       </c>
+      <c r="G74" t="s">
+        <v>264</v>
+      </c>
+      <c r="H74" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
@@ -3134,7 +3143,7 @@
         <v>248</v>
       </c>
       <c r="H75" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3160,7 +3169,7 @@
         <v>232</v>
       </c>
       <c r="H76" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3212,7 +3221,7 @@
         <v>239</v>
       </c>
       <c r="H78" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3235,10 +3244,10 @@
         <v>213</v>
       </c>
       <c r="G79" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H79" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3286,6 +3295,12 @@
       <c r="F81" t="s">
         <v>89</v>
       </c>
+      <c r="G81" t="s">
+        <v>239</v>
+      </c>
+      <c r="H81" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
@@ -3310,7 +3325,7 @@
         <v>239</v>
       </c>
       <c r="H82" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3359,10 +3374,10 @@
         <v>217</v>
       </c>
       <c r="G84" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H84" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3385,10 +3400,10 @@
         <v>93</v>
       </c>
       <c r="G85" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H85" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3411,10 +3426,10 @@
         <v>218</v>
       </c>
       <c r="G86" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H86" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3437,10 +3452,10 @@
         <v>219</v>
       </c>
       <c r="G87" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H87" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3466,7 +3481,7 @@
         <v>239</v>
       </c>
       <c r="H88" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3492,7 +3507,7 @@
         <v>231</v>
       </c>
       <c r="H89" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3544,7 +3559,7 @@
         <v>255</v>
       </c>
       <c r="H91" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3592,6 +3607,12 @@
       <c r="F93" t="s">
         <v>101</v>
       </c>
+      <c r="G93" t="s">
+        <v>239</v>
+      </c>
+      <c r="H93" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
@@ -3616,7 +3637,7 @@
         <v>248</v>
       </c>
       <c r="H94" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3642,7 +3663,7 @@
         <v>248</v>
       </c>
       <c r="H95" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3691,10 +3712,10 @@
         <v>226</v>
       </c>
       <c r="G97" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H97" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3717,10 +3738,10 @@
         <v>227</v>
       </c>
       <c r="G98" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H98" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3743,10 +3764,10 @@
         <v>228</v>
       </c>
       <c r="G99" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H99" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="100" spans="1:8">

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220512_173150.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220512_173150.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="272">
   <si>
     <t>사이트</t>
   </si>
@@ -739,7 +739,7 @@
     <t>매직스트로베리 사운드</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>스윙</t>
@@ -830,9 +830,6 @@
   </si>
   <si>
     <t>AOMG</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1242,7 @@
         <v>231</v>
       </c>
       <c r="H2" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1271,7 +1268,7 @@
         <v>232</v>
       </c>
       <c r="H3" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1297,7 +1294,7 @@
         <v>233</v>
       </c>
       <c r="H4" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1349,7 +1346,7 @@
         <v>235</v>
       </c>
       <c r="H6" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1401,7 +1398,7 @@
         <v>237</v>
       </c>
       <c r="H8" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1427,7 +1424,7 @@
         <v>238</v>
       </c>
       <c r="H9" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1453,7 +1450,7 @@
         <v>239</v>
       </c>
       <c r="H10" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1479,7 +1476,7 @@
         <v>240</v>
       </c>
       <c r="H11" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1505,7 +1502,7 @@
         <v>231</v>
       </c>
       <c r="H12" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1531,7 +1528,7 @@
         <v>241</v>
       </c>
       <c r="H13" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1609,7 +1606,7 @@
         <v>231</v>
       </c>
       <c r="H16" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1635,7 +1632,7 @@
         <v>233</v>
       </c>
       <c r="H17" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1661,7 +1658,7 @@
         <v>231</v>
       </c>
       <c r="H18" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1687,7 +1684,7 @@
         <v>244</v>
       </c>
       <c r="H19" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1713,7 +1710,7 @@
         <v>231</v>
       </c>
       <c r="H20" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1739,7 +1736,7 @@
         <v>245</v>
       </c>
       <c r="H21" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1765,7 +1762,7 @@
         <v>235</v>
       </c>
       <c r="H22" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1791,7 +1788,7 @@
         <v>246</v>
       </c>
       <c r="H23" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1817,7 +1814,7 @@
         <v>238</v>
       </c>
       <c r="H24" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1843,7 +1840,7 @@
         <v>247</v>
       </c>
       <c r="H25" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1921,7 +1918,7 @@
         <v>244</v>
       </c>
       <c r="H28" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1947,7 +1944,7 @@
         <v>248</v>
       </c>
       <c r="H29" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1973,7 +1970,7 @@
         <v>238</v>
       </c>
       <c r="H30" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2025,7 +2022,7 @@
         <v>232</v>
       </c>
       <c r="H32" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2103,7 +2100,7 @@
         <v>250</v>
       </c>
       <c r="H35" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2129,7 +2126,7 @@
         <v>233</v>
       </c>
       <c r="H36" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2155,7 +2152,7 @@
         <v>251</v>
       </c>
       <c r="H37" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2181,7 +2178,7 @@
         <v>252</v>
       </c>
       <c r="H38" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2207,7 +2204,7 @@
         <v>253</v>
       </c>
       <c r="H39" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2233,7 +2230,7 @@
         <v>254</v>
       </c>
       <c r="H40" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2259,7 +2256,7 @@
         <v>239</v>
       </c>
       <c r="H41" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2285,7 +2282,7 @@
         <v>255</v>
       </c>
       <c r="H42" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2311,7 +2308,7 @@
         <v>231</v>
       </c>
       <c r="H43" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2337,7 +2334,7 @@
         <v>256</v>
       </c>
       <c r="H44" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2363,7 +2360,7 @@
         <v>257</v>
       </c>
       <c r="H45" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2389,7 +2386,7 @@
         <v>248</v>
       </c>
       <c r="H46" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2415,7 +2412,7 @@
         <v>258</v>
       </c>
       <c r="H47" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2441,7 +2438,7 @@
         <v>259</v>
       </c>
       <c r="H48" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2467,7 +2464,7 @@
         <v>232</v>
       </c>
       <c r="H49" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2493,7 +2490,7 @@
         <v>231</v>
       </c>
       <c r="H50" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2519,7 +2516,7 @@
         <v>255</v>
       </c>
       <c r="H51" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2545,7 +2542,7 @@
         <v>248</v>
       </c>
       <c r="H52" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2571,7 +2568,7 @@
         <v>239</v>
       </c>
       <c r="H53" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2623,7 +2620,7 @@
         <v>239</v>
       </c>
       <c r="H55" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2753,7 +2750,7 @@
         <v>239</v>
       </c>
       <c r="H60" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2779,7 +2776,7 @@
         <v>239</v>
       </c>
       <c r="H61" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2805,7 +2802,7 @@
         <v>241</v>
       </c>
       <c r="H62" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2857,7 +2854,7 @@
         <v>239</v>
       </c>
       <c r="H64" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2909,7 +2906,7 @@
         <v>261</v>
       </c>
       <c r="H66" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2961,7 +2958,7 @@
         <v>241</v>
       </c>
       <c r="H68" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2987,7 +2984,7 @@
         <v>231</v>
       </c>
       <c r="H69" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3013,7 +3010,7 @@
         <v>262</v>
       </c>
       <c r="H70" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3065,7 +3062,7 @@
         <v>239</v>
       </c>
       <c r="H72" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3091,7 +3088,7 @@
         <v>263</v>
       </c>
       <c r="H73" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3117,7 +3114,7 @@
         <v>264</v>
       </c>
       <c r="H74" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3143,7 +3140,7 @@
         <v>248</v>
       </c>
       <c r="H75" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3169,7 +3166,7 @@
         <v>232</v>
       </c>
       <c r="H76" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3221,7 +3218,7 @@
         <v>239</v>
       </c>
       <c r="H78" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3247,7 +3244,7 @@
         <v>265</v>
       </c>
       <c r="H79" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3299,7 +3296,7 @@
         <v>239</v>
       </c>
       <c r="H81" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3325,7 +3322,7 @@
         <v>239</v>
       </c>
       <c r="H82" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3377,7 +3374,7 @@
         <v>266</v>
       </c>
       <c r="H84" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3403,7 +3400,7 @@
         <v>267</v>
       </c>
       <c r="H85" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3429,7 +3426,7 @@
         <v>268</v>
       </c>
       <c r="H86" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3455,7 +3452,7 @@
         <v>269</v>
       </c>
       <c r="H87" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3481,7 +3478,7 @@
         <v>239</v>
       </c>
       <c r="H88" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3507,7 +3504,7 @@
         <v>231</v>
       </c>
       <c r="H89" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3559,7 +3556,7 @@
         <v>255</v>
       </c>
       <c r="H91" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3611,7 +3608,7 @@
         <v>239</v>
       </c>
       <c r="H93" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3637,7 +3634,7 @@
         <v>248</v>
       </c>
       <c r="H94" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3663,7 +3660,7 @@
         <v>248</v>
       </c>
       <c r="H95" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3715,7 +3712,7 @@
         <v>268</v>
       </c>
       <c r="H97" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3741,7 +3738,7 @@
         <v>270</v>
       </c>
       <c r="H98" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3767,7 +3764,7 @@
         <v>271</v>
       </c>
       <c r="H99" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="100" spans="1:8">
